--- a/WebRoot/others/apolcms-new-changes-tracking.xlsx
+++ b/WebRoot/others/apolcms-new-changes-tracking.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75877665-00BD-4E9A-B158-441F48406439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E6169F60-F0EB-4E74-AB8C-86E72CD6BD2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{60A37D27-D4B8-4923-A570-6C72913D62F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22485" windowHeight="8160" activeTab="1" xr2:uid="{60A37D27-D4B8-4923-A570-6C72913D62F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Backend Changes" sheetId="1" r:id="rId1"/>
-    <sheet name="New Services_x0009_" sheetId="2" r:id="rId2"/>
+    <sheet name="Services" sheetId="2" r:id="rId2"/>
+    <sheet name="Reports" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A7:O27"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Sl No.</t>
   </si>
@@ -64,12 +61,6 @@
     <t>New Acknowledgements total does not match on drilldown</t>
   </si>
   <si>
-    <t xml:space="preserve"> On Click Dept Name on Dashboard- Show particular HOD dashboard with tabs(boxes with count) like "User Home".</t>
-  </si>
-  <si>
-    <t>for Sect Dept. Show total of All HODS on Dashboards.</t>
-  </si>
-  <si>
     <t>Finance Dept. Category Screen</t>
   </si>
   <si>
@@ -107,6 +98,51 @@
   </si>
   <si>
     <t>Req Date</t>
+  </si>
+  <si>
+    <t>Show Current Case Status and currently assigned in all Reports</t>
+  </si>
+  <si>
+    <t>Case Send Back Option not working properly</t>
+  </si>
+  <si>
+    <t>Case Activities Report in ALL Logins</t>
+  </si>
+  <si>
+    <t>HC Scanned Affidavits Uploaded Status Report</t>
+  </si>
+  <si>
+    <t>Search Case with WP No. for All Logins</t>
+  </si>
+  <si>
+    <t>Add Collectors in Respondents Selection</t>
+  </si>
+  <si>
+    <t>Add Case Assignemnt Option to Collectors</t>
+  </si>
+  <si>
+    <t>On Click Dept Name on Dashboard- Show particular HOD dashboard with tabs(boxes with count) like "User Home".</t>
+  </si>
+  <si>
+    <t>For Sect Dept. Show total of All HODS on Dashboards.</t>
+  </si>
+  <si>
+    <t>Multiple times a cases displayed in Section Officer Login</t>
+  </si>
+  <si>
+    <t>SMS alerts Report in Admin Login</t>
+  </si>
+  <si>
+    <t>Report Description</t>
+  </si>
+  <si>
+    <t>User Role</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>All Roles</t>
   </si>
 </sst>
 </file>
@@ -138,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,20 +197,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -192,11 +245,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6914CD67-B9DC-47C0-B29E-0E2BEEE5ACDF}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,91 +593,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>44737</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>44737</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>44737</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>44737</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="C9" s="9">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
+      <c r="C10" s="9">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -621,10 +721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891A8767-21A0-43BD-880C-7395177F5E8D}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,190 +735,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>11</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>12</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="6">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>14</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>10</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>11</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="7">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7">
-        <v>44737</v>
-      </c>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -827,4 +965,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9014A285-27FA-4CAA-8383-80B432DB9932}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WebRoot/others/apolcms-new-changes-tracking.xlsx
+++ b/WebRoot/others/apolcms-new-changes-tracking.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E6169F60-F0EB-4E74-AB8C-86E72CD6BD2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surjan Vali\Workspaces\MyEclipse2021\apolcms\olcms-app\WebRoot\others\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05693B54-AD5E-496C-A3D7-16F64F9757AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22485" windowHeight="8160" activeTab="1" xr2:uid="{60A37D27-D4B8-4923-A570-6C72913D62F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22485" windowHeight="9435" activeTab="1" xr2:uid="{60A37D27-D4B8-4923-A570-6C72913D62F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Backend Changes" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Reports" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:O27"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Sl No.</t>
   </si>
@@ -143,6 +147,12 @@
   </si>
   <si>
     <t>All Roles</t>
+  </si>
+  <si>
+    <t>Instructions Entry to Department</t>
+  </si>
+  <si>
+    <t>Dialy CaseStatus Updation Entry by GP</t>
   </si>
 </sst>
 </file>
@@ -221,9 +231,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,14 +267,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,123 +610,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>44737</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>44737</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>44737</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>44737</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>44737</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>44737</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="16" t="s">
         <v>34</v>
       </c>
+      <c r="C12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -721,10 +739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891A8767-21A0-43BD-880C-7395177F5E8D}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,228 +753,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="C5" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="C6" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="C7" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="C8" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
+      <c r="C10" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7" t="s">
+      <c r="C11" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7" t="s">
+      <c r="C12" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="C13" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="C15" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="C16" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>7</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="C17" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="C18" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>9</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="C19" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>10</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="C20" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>11</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="C21" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>12</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6">
-        <v>44737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="C22" s="5">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B24" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B25" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="10"/>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -996,7 +1029,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
@@ -1007,7 +1040,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C3" t="s">
@@ -1018,7 +1051,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
@@ -1029,7 +1062,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">

--- a/WebRoot/others/apolcms-new-changes-tracking.xlsx
+++ b/WebRoot/others/apolcms-new-changes-tracking.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surjan Vali\Workspaces\MyEclipse2021\apolcms\olcms-app\WebRoot\others\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05693B54-AD5E-496C-A3D7-16F64F9757AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{19B888C5-D8D1-4746-ABC1-CA4093DC16E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22485" windowHeight="9435" activeTab="1" xr2:uid="{60A37D27-D4B8-4923-A570-6C72913D62F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27780" windowHeight="10335" activeTab="1" xr2:uid="{60A37D27-D4B8-4923-A570-6C72913D62F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Backend Changes" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Reports" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:T27"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -176,12 +172,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -231,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,17 +274,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +614,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,11 +624,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -650,13 +664,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="20">
         <v>44737</v>
       </c>
     </row>
@@ -715,19 +729,19 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -742,7 +756,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,11 +767,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -772,14 +786,14 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="2"/>
@@ -794,13 +808,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="22">
         <v>44737</v>
       </c>
     </row>
@@ -941,13 +955,13 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="21">
         <v>11</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="22">
         <v>44737</v>
       </c>
     </row>
@@ -970,19 +984,19 @@
       <c r="A24" s="3">
         <v>13</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>14</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1005,7 +1019,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WebRoot/others/apolcms-new-changes-tracking.xlsx
+++ b/WebRoot/others/apolcms-new-changes-tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{19B888C5-D8D1-4746-ABC1-CA4093DC16E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FB36868C-B54F-489F-99FE-5754DCDED02E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27780" windowHeight="10335" activeTab="1" xr2:uid="{60A37D27-D4B8-4923-A570-6C72913D62F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23565" windowHeight="5055" activeTab="1" xr2:uid="{60A37D27-D4B8-4923-A570-6C72913D62F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Backend Changes" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Reports" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:T27"/>
+  <oleSize ref="A1:P17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -279,23 +279,23 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,11 +624,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -664,13 +664,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>44737</v>
       </c>
     </row>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891A8767-21A0-43BD-880C-7395177F5E8D}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,11 +767,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -808,13 +808,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>44737</v>
       </c>
     </row>
@@ -955,13 +955,13 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="19">
         <v>11</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <v>44737</v>
       </c>
     </row>
